--- a/AppDesignReadOnly.xlsx
+++ b/AppDesignReadOnly.xlsx
@@ -354,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -373,9 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -665,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -799,7 +796,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -828,7 +825,7 @@
     </row>
     <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -865,7 +862,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B21" s="6"/>
@@ -954,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/AppDesignReadOnly.xlsx
+++ b/AppDesignReadOnly.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>addClass</t>
   </si>
@@ -198,10 +198,6 @@
     <t>AppDesign.Field("sourceFieldName").addClass("className");</t>
   </si>
   <si>
-    <t>AppDesign.Field("sourceFieldName").attributes("attributesKey","attributesValue");
-AppDesign.Field("sourceFieldName").attributes("attributesKey");</t>
-  </si>
-  <si>
     <t>inputRegular(regular)</t>
   </si>
   <si>
@@ -227,10 +223,6 @@
   </si>
   <si>
     <t>disabled(switchValue)</t>
-  </si>
-  <si>
-    <t>AppDesign.Field("sourceFieldName").disabled(true);
-AppDesign.Field("sourceFieldName").disabled(false);</t>
   </si>
   <si>
     <t>AppDesign.Section(sourceSectionField)</t>
@@ -285,6 +277,36 @@
   </si>
   <si>
     <t>AppDesign.Field("sourceFieldName").changeToShowHide(["sourceFieldValue1","sourceFieldValue2"], ["targetField1","targetField2"]);</t>
+  </si>
+  <si>
+    <t>setValue(targetValue)</t>
+  </si>
+  <si>
+    <t>getValue()</t>
+  </si>
+  <si>
+    <t>AppDesign.Field("sourceFieldName").setValue("targetValue")</t>
+  </si>
+  <si>
+    <t>AppDesign.Field("sourceFieldName").getValue()</t>
+  </si>
+  <si>
+    <t>attribute(attributesKey,attributesValue)</t>
+  </si>
+  <si>
+    <t>AppDesign.Field("sourceFieldName").attribute("attributesKey","attributesValue");</t>
+  </si>
+  <si>
+    <t>enabled()</t>
+  </si>
+  <si>
+    <t>AppDesign.Field("sourceFieldName").enabled();</t>
+  </si>
+  <si>
+    <t>AppDesign.Field("sourceFieldName").disabled();</t>
+  </si>
+  <si>
+    <t>disabled()</t>
   </si>
 </sst>
 </file>
@@ -660,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -684,228 +706,246 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="B17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="A18" s="10"/>
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="7" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="7" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
